--- a/ETIQUETAS.xlsx
+++ b/ETIQUETAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS COMPARTIDOS ORTOMAX BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C1AFD3-03C9-459F-A398-766B8B335120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B10CA-17AC-417B-B4EF-E73EAF74EB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF6A2D7F-1A31-4493-A079-60DFE97ABD47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>P13NAC185</t>
   </si>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C3889E-C385-4A82-8253-D21133DACD80}">
-  <dimension ref="G10:J27"/>
+  <dimension ref="G10:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H39" sqref="H38:H39"/>
+      <selection activeCell="G29" sqref="G29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,6 +713,15 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
